--- a/src/main/resources/templates-excel/excel-invoice.xlsx
+++ b/src/main/resources/templates-excel/excel-invoice.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓</t>
   </si>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>${data.nmProduct}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${invoiceName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,6 +1017,147 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,148 +1176,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,7 +1485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,7 +1496,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" customHeight="1"/>
@@ -1514,32 +1518,32 @@
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="H4" s="3"/>
@@ -1548,120 +1552,120 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="59" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="62" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="65" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="62" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="28" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="15" t="s">
         <v>26</v>
       </c>
@@ -1670,65 +1674,65 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="1.9" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:12" ht="3" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1744,18 +1748,18 @@
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="13" t="s">
         <v>20</v>
       </c>
@@ -1765,52 +1769,66 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="2.4500000000000002" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="25"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1">
       <c r="K23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B5:F5"/>
@@ -1827,20 +1845,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.34722222222222221" right="0.20833333333333334" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
